--- a/Mifos Automation Excels/Client/4209-RBI-EI-DB-DL-REC-CTRFD-RNI-FEE-FFConMONTHLYonDAY25-FIFC-1-FFROP-DAILY-FIFR-1-MD-TR-1-ONTIME-PERIODIC-Newcreateloan1.xlsx
+++ b/Mifos Automation Excels/Client/4209-RBI-EI-DB-DL-REC-CTRFD-RNI-FEE-FFConMONTHLYonDAY25-FIFC-1-FFROP-DAILY-FIFR-1-MD-TR-1-ONTIME-PERIODIC-Newcreateloan1.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="30" windowWidth="20115" windowHeight="7755" activeTab="1"/>
+    <workbookView xWindow="240" yWindow="30" windowWidth="20115" windowHeight="7755"/>
   </bookViews>
   <sheets>
     <sheet name="NewLoanInput" sheetId="5" r:id="rId1"/>
@@ -182,9 +182,6 @@
     <t>Accrual</t>
   </si>
   <si>
-    <t>4209-RBI-EI-DB-DL-REC-RNI-FEE-FFConMONTHLYonDAY25-FIFC-1-FFROP-DAILY-FIFR-1-MD-TR-1-ONTIME-PER</t>
-  </si>
-  <si>
     <t>office</t>
   </si>
   <si>
@@ -228,6 +225,9 @@
   </si>
   <si>
     <t>Groupssss4209</t>
+  </si>
+  <si>
+    <t>4209-RBI-EI-DB-DL-REC-RNI-FEE-FFConMONTHLYonDAY25-FIFC-1-FFROP-DAILY-FIFR-1-MD-TR-1-ONT-PER-1st</t>
   </si>
 </sst>
 </file>
@@ -694,8 +694,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B19"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B12" sqref="B12"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -706,18 +706,18 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" s="5" t="s">
+        <v>64</v>
+      </c>
+      <c r="B1" s="5" t="s">
         <v>65</v>
-      </c>
-      <c r="B1" s="5" t="s">
-        <v>66</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" s="5" t="s">
+        <v>66</v>
+      </c>
+      <c r="B2" s="5" t="s">
         <v>67</v>
-      </c>
-      <c r="B2" s="5" t="s">
-        <v>68</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
@@ -725,7 +725,7 @@
         <v>28</v>
       </c>
       <c r="B3" s="15" t="s">
-        <v>54</v>
+        <v>69</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
@@ -866,7 +866,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="E2" sqref="E2"/>
     </sheetView>
   </sheetViews>
@@ -1820,7 +1820,7 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" s="20" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B1" s="21" t="s">
         <v>27</v>
@@ -1828,15 +1828,15 @@
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" s="20" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B2" s="21" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" s="20" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B3" s="22">
         <v>42005</v>
@@ -1844,15 +1844,15 @@
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" s="20" t="s">
+        <v>57</v>
+      </c>
+      <c r="B4" s="21" t="s">
         <v>58</v>
-      </c>
-      <c r="B4" s="21" t="s">
-        <v>59</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" s="20" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B5" s="22" t="s">
         <v>50</v>
@@ -1860,7 +1860,7 @@
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" s="20" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B6" s="22">
         <v>42005</v>
@@ -1868,18 +1868,18 @@
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7" s="20" t="s">
+        <v>61</v>
+      </c>
+      <c r="B7" s="20" t="s">
         <v>62</v>
-      </c>
-      <c r="B7" s="20" t="s">
-        <v>63</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A8" s="20" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B8" s="20" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
     </row>
   </sheetData>
